--- a/my-app/regionseng/11/industry/industry.xlsx
+++ b/my-app/regionseng/11/industry/industry.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -19,40 +19,40 @@
     <t>…</t>
   </si>
   <si>
-    <t>Main Indicators of Industry in Mtskheta-Mtianeti</t>
+    <t>Turnover (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Production Value (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Number of Emploed (pernosns)</t>
+  </si>
+  <si>
+    <t>Number of Employees (pernosns)</t>
+  </si>
+  <si>
+    <t>Average Monthly Remuneration of emploed perdons (Gel)</t>
+  </si>
+  <si>
+    <t>Intermediate consumption (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Personnel costs (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Value added (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Investment in fixed assets (mln. Gel)</t>
+  </si>
+  <si>
+    <t>Total purchases of goods and services (mln. Gel)</t>
   </si>
   <si>
     <t>… Data not Available</t>
   </si>
   <si>
-    <t>Turnover (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Production Value (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Number of Emploed (pernosns)</t>
-  </si>
-  <si>
-    <t>Number of Employees (pernosns)</t>
-  </si>
-  <si>
-    <t>Average Monthly Remuneration of emploed perdons (Gel)</t>
-  </si>
-  <si>
-    <t>Intermediate consumption (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Personnel costs (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Value added (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Investment in fixed assets (mln. Gel)</t>
-  </si>
-  <si>
-    <t>Total purchases of goods and services (mln. Gel)</t>
+    <t>Main Indicators of Industry in Tbilisi</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,18 +94,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -154,24 +148,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,18 +468,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -555,576 +547,538 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>82.7</v>
-      </c>
-      <c r="C3" s="6">
-        <v>98.5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>113.9</v>
-      </c>
-      <c r="E3" s="6">
-        <v>112.5</v>
-      </c>
-      <c r="F3" s="6">
-        <v>157.30000000000001</v>
-      </c>
-      <c r="G3" s="6">
-        <v>208.4</v>
-      </c>
-      <c r="H3" s="6">
-        <v>312.3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>327.3</v>
-      </c>
-      <c r="J3" s="6">
-        <v>410.9</v>
-      </c>
-      <c r="K3" s="6">
-        <v>347.3</v>
-      </c>
-      <c r="L3" s="6">
-        <v>352.5</v>
-      </c>
-      <c r="M3" s="6">
-        <v>485.5</v>
-      </c>
-      <c r="N3" s="6">
-        <v>594.5</v>
-      </c>
-      <c r="O3" s="6">
-        <v>733.7</v>
-      </c>
-      <c r="P3" s="6">
-        <v>954.8</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1263.3</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1430.1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2075.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2276.3000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2144.9</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2471</v>
+      </c>
+      <c r="G3" s="8">
+        <v>3104.1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>3210.2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>3327.6</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3718.4</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4289.2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4909.7</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5624.9</v>
+      </c>
+      <c r="N3" s="8">
+        <v>6217.9</v>
+      </c>
+      <c r="O3" s="8">
+        <v>6658.2</v>
+      </c>
+      <c r="P3" s="8">
+        <v>6663.9</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>8842.2999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>84.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>80.7</v>
-      </c>
-      <c r="D4" s="6">
-        <v>98.9</v>
-      </c>
-      <c r="E4" s="6">
-        <v>99.5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="G4" s="6">
-        <v>195</v>
-      </c>
-      <c r="H4" s="6">
-        <v>305.7</v>
-      </c>
-      <c r="I4" s="6">
-        <v>301.3</v>
-      </c>
-      <c r="J4" s="6">
-        <v>378.7</v>
-      </c>
-      <c r="K4" s="6">
-        <v>355</v>
-      </c>
-      <c r="L4" s="6">
-        <v>378.7</v>
-      </c>
-      <c r="M4" s="6">
-        <v>487.2</v>
-      </c>
-      <c r="N4" s="6">
-        <v>602.29999999999995</v>
-      </c>
-      <c r="O4" s="6">
-        <v>781.6</v>
-      </c>
-      <c r="P4" s="6">
-        <v>960.3</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>1249.0999999999999</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1060.9000000000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1532.6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1591.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1694</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1969</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2449.1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2624.6</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2800</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3066.2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3315.6</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3726.2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>4124.6000000000004</v>
+      </c>
+      <c r="N4" s="8">
+        <v>4522.1000000000004</v>
+      </c>
+      <c r="O4" s="8">
+        <v>4844.7</v>
+      </c>
+      <c r="P4" s="8">
+        <v>4735.1000000000004</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>6348.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>1945</v>
+        <v>38101</v>
       </c>
       <c r="C5" s="7">
-        <v>1897</v>
+        <v>39985</v>
       </c>
       <c r="D5" s="7">
-        <v>1627</v>
+        <v>38144</v>
       </c>
       <c r="E5" s="7">
-        <v>1704</v>
+        <v>40762</v>
       </c>
       <c r="F5" s="7">
-        <v>1867</v>
+        <v>45399</v>
       </c>
       <c r="G5" s="7">
-        <v>2441</v>
+        <v>51493</v>
       </c>
       <c r="H5" s="7">
-        <v>2911</v>
+        <v>53847</v>
       </c>
       <c r="I5" s="7">
-        <v>2734</v>
+        <v>54242</v>
       </c>
       <c r="J5" s="7">
-        <v>3333</v>
+        <v>51077</v>
       </c>
       <c r="K5" s="7">
-        <v>2886</v>
+        <v>57312</v>
       </c>
       <c r="L5" s="7">
-        <v>3131</v>
+        <v>58439</v>
       </c>
       <c r="M5" s="7">
-        <v>3690</v>
+        <v>61476</v>
       </c>
       <c r="N5" s="7">
-        <v>4249</v>
+        <v>61656</v>
       </c>
       <c r="O5" s="7">
-        <v>4584</v>
+        <v>59941</v>
       </c>
       <c r="P5" s="7">
-        <v>5006</v>
+        <v>59606</v>
       </c>
       <c r="Q5" s="7">
-        <v>5155</v>
+        <v>59964</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>1892</v>
+        <v>37591</v>
       </c>
       <c r="C6" s="7">
-        <v>1885</v>
+        <v>39614</v>
       </c>
       <c r="D6" s="7">
-        <v>1588</v>
+        <v>37751</v>
       </c>
       <c r="E6" s="7">
-        <v>1625</v>
+        <v>39836</v>
       </c>
       <c r="F6" s="7">
-        <v>1790</v>
+        <v>44527</v>
       </c>
       <c r="G6" s="7">
-        <v>2393</v>
+        <v>50391</v>
       </c>
       <c r="H6" s="7">
-        <v>2891</v>
+        <v>52542</v>
       </c>
       <c r="I6" s="7">
-        <v>2678</v>
+        <v>53098</v>
       </c>
       <c r="J6" s="7">
-        <v>3251</v>
+        <v>49717</v>
       </c>
       <c r="K6" s="7">
-        <v>2755</v>
+        <v>55606</v>
       </c>
       <c r="L6" s="7">
-        <v>2999</v>
+        <v>57182</v>
       </c>
       <c r="M6" s="7">
-        <v>3487</v>
+        <v>59330</v>
       </c>
       <c r="N6" s="7">
-        <v>4051</v>
+        <v>60139</v>
       </c>
       <c r="O6" s="7">
-        <v>4389</v>
+        <v>58953</v>
       </c>
       <c r="P6" s="7">
-        <v>4804</v>
+        <v>59114</v>
       </c>
       <c r="Q6" s="7">
-        <v>5026</v>
+        <v>59166</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>428</v>
-      </c>
-      <c r="C7" s="6">
-        <v>376.6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>569.20000000000005</v>
-      </c>
-      <c r="E7" s="6">
-        <v>640</v>
-      </c>
-      <c r="F7" s="6">
-        <v>681.1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>849.8</v>
-      </c>
-      <c r="H7" s="6">
-        <v>850</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1059.7</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1045.4000000000001</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1298.3</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1253.9000000000001</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1309.0999999999999</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1413.1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1541.6</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1796.6</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1836.7</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>377.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>511.7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>717.6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>659.7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>673.2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>713.6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>803.2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>848.7</v>
+      </c>
+      <c r="J7" s="8">
+        <v>896.5</v>
+      </c>
+      <c r="K7" s="8">
+        <v>942.2</v>
+      </c>
+      <c r="L7" s="8">
+        <v>990.2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1071.5</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1127.3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1203.5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1185.3</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1348.4</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>45.9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>60.7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="E8" s="6">
-        <v>73.3</v>
-      </c>
-      <c r="F8" s="6">
-        <v>133.4</v>
-      </c>
-      <c r="G8" s="6">
-        <v>157.30000000000001</v>
-      </c>
-      <c r="H8" s="6">
-        <v>208.1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>214.6</v>
-      </c>
-      <c r="J8" s="6">
-        <v>253.9</v>
-      </c>
-      <c r="K8" s="6">
-        <v>239.3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>256.3</v>
-      </c>
-      <c r="M8" s="6">
-        <v>336.4</v>
-      </c>
-      <c r="N8" s="6">
-        <v>397.3</v>
-      </c>
-      <c r="O8" s="6">
-        <v>553.5</v>
-      </c>
-      <c r="P8" s="6">
-        <v>659.4</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>875.8</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>643.79999999999995</v>
+      </c>
+      <c r="C8" s="8">
+        <v>895.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>832</v>
+      </c>
+      <c r="E8" s="8">
+        <v>968.4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1073.5999999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1419</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1588.5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1615.2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1860.6</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2061.6999999999998</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2156.1</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2559.6</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2719.5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>3044.5</v>
+      </c>
+      <c r="P8" s="8">
+        <v>3052.7</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>3651.5</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>11.7</v>
-      </c>
-      <c r="C9" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D9" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>15.7</v>
-      </c>
-      <c r="G9" s="6">
-        <v>26.4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>34.5</v>
-      </c>
-      <c r="J9" s="6">
-        <v>40.9</v>
-      </c>
-      <c r="K9" s="6">
-        <v>44.3</v>
-      </c>
-      <c r="L9" s="6">
-        <v>46.5</v>
-      </c>
-      <c r="M9" s="6">
-        <v>56.9</v>
-      </c>
-      <c r="N9" s="6">
-        <v>70.5</v>
-      </c>
-      <c r="O9" s="6">
-        <v>83.5</v>
-      </c>
-      <c r="P9" s="6">
-        <v>105.7</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>115.6</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>204</v>
+      </c>
+      <c r="C9" s="8">
+        <v>292</v>
+      </c>
+      <c r="D9" s="8">
+        <v>325.2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>316.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>363.3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>435</v>
+      </c>
+      <c r="H9" s="8">
+        <v>507.9</v>
+      </c>
+      <c r="I9" s="8">
+        <v>542.20000000000005</v>
+      </c>
+      <c r="J9" s="8">
+        <v>535.9</v>
+      </c>
+      <c r="K9" s="8">
+        <v>632.20000000000005</v>
+      </c>
+      <c r="L9" s="8">
+        <v>682.7</v>
+      </c>
+      <c r="M9" s="8">
+        <v>770.3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>821.2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>870.6</v>
+      </c>
+      <c r="P9" s="8">
+        <v>860.5</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>978.8</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>38.6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6">
-        <v>20.9</v>
-      </c>
-      <c r="E10" s="6">
-        <v>26.1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>26.4</v>
-      </c>
-      <c r="G10" s="6">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="H10" s="6">
-        <v>97.6</v>
-      </c>
-      <c r="I10" s="6">
-        <v>86.7</v>
-      </c>
-      <c r="J10" s="6">
-        <v>124.8</v>
-      </c>
-      <c r="K10" s="6">
-        <v>115.7</v>
-      </c>
-      <c r="L10" s="6">
-        <v>122.4</v>
-      </c>
-      <c r="M10" s="6">
-        <v>150.80000000000001</v>
-      </c>
-      <c r="N10" s="6">
-        <v>205</v>
-      </c>
-      <c r="O10" s="6">
-        <v>228.1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>300.89999999999998</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>373.2</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>417.2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>637.1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>759.8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>725.6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>895.5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1030.0999999999999</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1036.0999999999999</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1184.9000000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1205.5999999999999</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1253.9000000000001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1570</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1565</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1802.5</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1800.3</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1682.4</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>2697.4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>15.8</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="E11" s="6">
-        <v>26.1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>56.1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>36.9</v>
-      </c>
-      <c r="H11" s="6">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="I11" s="6">
-        <v>20.6</v>
-      </c>
-      <c r="J11" s="6">
-        <v>50.1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>36.1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>302.89999999999998</v>
-      </c>
-      <c r="M11" s="6">
-        <v>44.8</v>
-      </c>
-      <c r="N11" s="6">
-        <v>77.7</v>
-      </c>
-      <c r="O11" s="6">
-        <v>72.5</v>
-      </c>
-      <c r="P11" s="6">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>78.900000000000006</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>242.8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>621.9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>329.1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>166.9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>459.9</v>
+      </c>
+      <c r="G11" s="8">
+        <v>293.3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>313.3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1066.8</v>
+      </c>
+      <c r="J11" s="8">
+        <v>403.1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>384.9</v>
+      </c>
+      <c r="L11" s="8">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="M11" s="8">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="N11" s="8">
+        <v>484.7</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1041.3</v>
+      </c>
+      <c r="P11" s="8">
+        <v>600.4</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>676.1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="6">
-        <v>86.6</v>
-      </c>
-      <c r="D12" s="6">
-        <v>117.6</v>
-      </c>
-      <c r="E12" s="6">
-        <v>83.2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>161.9</v>
-      </c>
-      <c r="G12" s="6">
-        <v>157.6</v>
-      </c>
-      <c r="H12" s="6">
-        <v>235.1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>254.1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>292.10000000000002</v>
-      </c>
-      <c r="K12" s="6">
-        <v>251</v>
-      </c>
-      <c r="L12" s="6">
-        <v>251.3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>354.6</v>
-      </c>
-      <c r="N12" s="6">
-        <v>408</v>
-      </c>
-      <c r="O12" s="6">
-        <v>553.29999999999995</v>
-      </c>
-      <c r="P12" s="6">
-        <v>675.5</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>881.6</v>
+      <c r="C12" s="8">
+        <v>1509.6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1615.2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1459.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1652.7</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2113.1999999999998</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2230.6</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2262.9</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2605.8000000000002</v>
+      </c>
+      <c r="K12" s="8">
+        <v>3175.9</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3460</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4277</v>
+      </c>
+      <c r="N12" s="8">
+        <v>4605.2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>5219.5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5094.3</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>6386.2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
